--- a/Project Files/Risk Assessment/Risk Assessment.xlsx
+++ b/Project Files/Risk Assessment/Risk Assessment.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\Year 2\ESS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\devel\ESS\Project Files\Risk Assessment\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="28">
   <si>
     <t>ID</t>
   </si>
@@ -69,6 +69,45 @@
   </si>
   <si>
     <t>Medium/Low</t>
+  </si>
+  <si>
+    <t>Project schedule will exceed deadlines</t>
+  </si>
+  <si>
+    <t xml:space="preserve">keep on top of work to alleviate this </t>
+  </si>
+  <si>
+    <t>Slacking</t>
+  </si>
+  <si>
+    <t>team member's becoming unavailable due to illness or holiday</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Risk chosen development tools can't handle workload </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Find a suitable replacement if occurs </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Risk project goes on a tanjent </t>
+  </si>
+  <si>
+    <t>Ensure requirements are clearly defined</t>
+  </si>
+  <si>
+    <t xml:space="preserve">inproper requirements - have to start guessing </t>
+  </si>
+  <si>
+    <t>This becomes more of a risk when you rely on individuals for a particular skill. We are all competant with chosen technolgies so the risk is less.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Risk to losing access to hardware </t>
+  </si>
+  <si>
+    <t xml:space="preserve">University provides loads of machines should we lose access to our personal devices </t>
   </si>
 </sst>
 </file>
@@ -132,6 +171,13 @@
   </cellStyles>
   <dxfs count="2">
     <dxf>
+      <border outline="0">
+        <top style="thick">
+          <color rgb="FF339966"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -159,13 +205,6 @@
         <bottom/>
       </border>
     </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thick">
-          <color rgb="FF339966"/>
-        </top>
-      </border>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -180,7 +219,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:G11" totalsRowShown="0" headerRowDxfId="0" tableBorderDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:G11" totalsRowShown="0" headerRowDxfId="1" tableBorderDxfId="0">
   <autoFilter ref="A1:G11"/>
   <tableColumns count="7">
     <tableColumn id="1" name="ID"/>
@@ -471,23 +510,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L5"/>
+  <dimension ref="A1:L6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.28515625" customWidth="1"/>
-    <col min="2" max="2" width="31.7109375" customWidth="1"/>
+    <col min="2" max="2" width="57.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.28515625" customWidth="1"/>
     <col min="4" max="4" width="14.85546875" customWidth="1"/>
     <col min="5" max="5" width="10.5703125" customWidth="1"/>
-    <col min="6" max="6" width="13.5703125" customWidth="1"/>
-    <col min="9" max="9" width="23.140625" customWidth="1"/>
-    <col min="10" max="10" width="25.5703125" customWidth="1"/>
-    <col min="11" max="11" width="20.85546875" customWidth="1"/>
+    <col min="6" max="6" width="42.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="41.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="22" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="12.85546875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -527,6 +565,27 @@
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2">
+        <v>7</v>
+      </c>
+      <c r="D2">
+        <v>7</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" t="s">
+        <v>17</v>
+      </c>
       <c r="I2" t="s">
         <v>11</v>
       </c>
@@ -541,6 +600,27 @@
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>4</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="F3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G3" t="s">
+        <v>19</v>
+      </c>
       <c r="I3" t="s">
         <v>11</v>
       </c>
@@ -555,6 +635,27 @@
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4">
+        <v>4</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>4</v>
+      </c>
+      <c r="F4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" t="s">
+        <v>19</v>
+      </c>
       <c r="I4" t="s">
         <v>12</v>
       </c>
@@ -569,6 +670,27 @@
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5">
+        <v>7</v>
+      </c>
+      <c r="D5">
+        <v>2</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G5" t="s">
+        <v>24</v>
+      </c>
       <c r="I5" t="s">
         <v>12</v>
       </c>
@@ -580,6 +702,29 @@
       </c>
       <c r="L5">
         <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>4</v>
+      </c>
+      <c r="F6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G6" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/Project Files/Risk Assessment/Risk Assessment.xlsx
+++ b/Project Files/Risk Assessment/Risk Assessment.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\devel\ESS\Project Files\Risk Assessment\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\devel\Engineering Software Systems\ESS\Project Files\Risk Assessment\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D08107F0-0773-4203-898A-98F8EC149E24}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="34">
   <si>
     <t>ID</t>
   </si>
@@ -108,12 +109,30 @@
   </si>
   <si>
     <t xml:space="preserve">University provides loads of machines should we lose access to our personal devices </t>
+  </si>
+  <si>
+    <t>Increased scope leading to loss of focus on core user requirements</t>
+  </si>
+  <si>
+    <t>Time constraints leading to user requirements not being fully met</t>
+  </si>
+  <si>
+    <t>Focus on core functionality defined in user requirements before continuing to add functionality</t>
+  </si>
+  <si>
+    <t>Ensure work is properly structured, using tools such as the Gantt chart</t>
+  </si>
+  <si>
+    <t>Feature Creep</t>
+  </si>
+  <si>
+    <t>Lack of consistency in work hours</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -160,11 +179,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -219,29 +239,29 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:G11" totalsRowShown="0" headerRowDxfId="1" tableBorderDxfId="0">
-  <autoFilter ref="A1:G11"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table2" displayName="Table2" ref="A1:G11" totalsRowShown="0" headerRowDxfId="1" tableBorderDxfId="0">
+  <autoFilter ref="A1:G11" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="7">
-    <tableColumn id="1" name="ID"/>
-    <tableColumn id="2" name="Risk event description and impact area"/>
-    <tableColumn id="3" name="Impact Rating"/>
-    <tableColumn id="4" name="Probability Rating"/>
-    <tableColumn id="5" name="Risk Score"/>
-    <tableColumn id="6" name="Risk Response Description"/>
-    <tableColumn id="7" name="Trigger"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="ID"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Risk event description and impact area"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Impact Rating"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Probability Rating"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Risk Score"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Risk Response Description"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Trigger"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="I1:L5" totalsRowShown="0" headerRowCellStyle="Normal" dataCellStyle="Normal">
-  <autoFilter ref="I1:L5"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table3" displayName="Table3" ref="I1:L8" totalsRowShown="0" headerRowCellStyle="Normal" dataCellStyle="Normal">
+  <autoFilter ref="I1:L8" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="If the impact to scope, cost, or customer is:" dataCellStyle="Normal"/>
-    <tableColumn id="2" name="If the probability of the event occurring is: " dataCellStyle="Normal"/>
-    <tableColumn id="3" name="Overall Risk Level is: " dataCellStyle="Normal"/>
-    <tableColumn id="4" name="Risk Score " dataCellStyle="Normal"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="If the impact to scope, cost, or customer is:" dataCellStyle="Normal"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="If the probability of the event occurring is: " dataCellStyle="Normal"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Overall Risk Level is: " dataCellStyle="Normal"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Risk Score " dataCellStyle="Normal"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -509,21 +529,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:L8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.28515625" customWidth="1"/>
-    <col min="2" max="2" width="57.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="62.42578125" customWidth="1"/>
     <col min="3" max="3" width="12.28515625" customWidth="1"/>
     <col min="4" max="4" width="14.85546875" customWidth="1"/>
     <col min="5" max="5" width="10.5703125" customWidth="1"/>
-    <col min="6" max="6" width="42.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="127.140625" customWidth="1"/>
+    <col min="7" max="7" width="42.42578125" customWidth="1"/>
     <col min="9" max="10" width="41.85546875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="22" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="12.85546875" customWidth="1"/>
@@ -725,6 +746,88 @@
       </c>
       <c r="G6" t="s">
         <v>19</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="L6" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7">
+        <v>5</v>
+      </c>
+      <c r="D7">
+        <v>3</v>
+      </c>
+      <c r="E7">
+        <v>4</v>
+      </c>
+      <c r="F7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G7" t="s">
+        <v>32</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="L7" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8">
+        <v>5</v>
+      </c>
+      <c r="D8">
+        <v>3</v>
+      </c>
+      <c r="E8">
+        <v>4</v>
+      </c>
+      <c r="F8" t="s">
+        <v>31</v>
+      </c>
+      <c r="G8" t="s">
+        <v>33</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="L8" s="2">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
